--- a/Global_Search_Algorithm_Base/resultHill.xlsx
+++ b/Global_Search_Algorithm_Base/resultHill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\Desktop\Labs\Global_Search_Algorithm_Base\Global_Search_Algorithm_Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78466B01-0BBC-4648-ABDD-FBA3EDBE5AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D114EC71-41CB-4D0B-8234-0AD3E172880A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8535,16 +8535,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>289611</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>113945</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>167330</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>120380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>67416</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>154459</xdr:rowOff>
+      <xdr:colOff>595152</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>160895</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8871,7 +8871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="74" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="74" workbookViewId="0">
       <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
